--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/38_Iğdır_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/38_Iğdır_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984BC7CD-0B42-4BC9-81E5-2B7A8AF93689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEEA58C5-064F-450A-980D-A221AFE3BA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{32BF62D2-D9BA-4893-AFCE-CBFF5DE4F646}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{D71A4E8E-FC00-4C57-A0B1-B09504D51868}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -815,14 +815,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D459B7B7-8EF1-4515-9A5B-A2380BACD1F0}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{32A503BF-6AA8-4E70-B244-585D71D7A700}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{4DBA78AE-EB5C-4B6F-AF10-A4CF4B36F14B}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F0933535-5DD5-4411-B7B0-26567E86C19C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5450D379-1EBC-4169-A674-F87C4CF17D4D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6EFF5ABC-D0C9-4611-98D5-09AE599CFACB}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C6CB237C-D4FB-4C80-8AEC-8B0DBE90CE95}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7B721BF3-A05C-4D4D-88DE-525D360CCF75}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B3E39277-1EDD-4804-A01C-0D68D58B4BD6}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{175F1230-9AA9-421A-B4C3-7E8D50E1A530}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{B252792A-3AEB-4521-A69A-284F8C09F912}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3F5D930A-7335-4EE6-AB6F-8D08E14AFEE2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D248325B-52FF-497A-93E9-AA03AE2A45DC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{2CE3499E-049D-4321-AAD7-535081363FD5}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{44258F27-4C02-4854-A715-6DEDFDCCE9B5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{9C3D9D2A-3E6A-4BA4-B04E-51202B4468CE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1192,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F7ACE5-B6E8-4A0A-AC84-E116A1F9B889}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098A4513-BB67-4768-B151-6AC2603EFB8C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2451,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5947BAF-89B7-4A11-B44C-8C1611BB43BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFBC699-C47A-429B-A5EC-D3EED5641D45}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3720,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF9C75E-7210-4A17-8803-908949AA3D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEB3002-517B-475B-9FAF-1F2046315372}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4995,7 +4995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B37A932-5F95-4B9F-A680-397AAFC6A26D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AF1970-3228-4758-8832-8C3D6347494F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6272,7 +6272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4572BEED-2B5C-4CC0-94A5-A64BE4FE575C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9004B-BB31-43AB-BE11-4106BCC6E9FD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7531,7 +7531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D707FD-F9CE-4174-86B1-B1E7B0B3B8CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EA014-E6A8-4488-A385-7006C2BCC164}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
